--- a/artfynd/A 26341-2025 artfynd.xlsx
+++ b/artfynd/A 26341-2025 artfynd.xlsx
@@ -1569,7 +1569,7 @@
         <v>130611431</v>
       </c>
       <c r="B9" t="n">
-        <v>57984</v>
+        <v>57988</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
